--- a/src/analysis_examples/circadipy/results_circadipy/sine_01/cosinor_per_day_fixed_period_2_sine_01_.xlsx
+++ b/src/analysis_examples/circadipy/results_circadipy/sine_01/cosinor_per_day_fixed_period_2_sine_01_.xlsx
@@ -581,69 +581,69 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>25.29000000000051</v>
+        <v>25.63000000000057</v>
       </c>
       <c r="G2" t="n">
         <v>1</v>
       </c>
       <c r="H2" t="n">
-        <v>0.005150608421901293</v>
+        <v>1.033913669856723e-05</v>
       </c>
       <c r="I2" t="n">
-        <v>0.005150608421901293</v>
+        <v>1.033913669856723e-05</v>
       </c>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="n">
-        <v>30.09260304302428</v>
+        <v>47.44987279384012</v>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>[8.476924131494584, 51.70828195455398]</t>
+          <t>[26.018595720753268, 68.88114986692698]</t>
         </is>
       </c>
       <c r="N2" t="n">
-        <v>0.00742482189949123</v>
+        <v>5.429484279217967e-05</v>
       </c>
       <c r="O2" t="n">
-        <v>0.00742482189949123</v>
+        <v>5.429484279217967e-05</v>
       </c>
       <c r="P2" t="n">
-        <v>1.654131867655887</v>
+        <v>1.905710858934349</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>[0.685552751233808, 2.6227109840779663]</t>
+          <t>[1.3522370781217345, 2.4591846397469643]</t>
         </is>
       </c>
       <c r="R2" t="n">
-        <v>0.001266757356321868</v>
+        <v>1.272621563686016e-08</v>
       </c>
       <c r="S2" t="n">
-        <v>0.001266757356321868</v>
+        <v>1.272621563686016e-08</v>
       </c>
       <c r="T2" t="n">
-        <v>44.65393333940652</v>
+        <v>64.4500992842018</v>
       </c>
       <c r="U2" t="inlineStr">
         <is>
-          <t>[31.866011420794806, 57.441855258018236]</t>
+          <t>[51.65299297278321, 77.24720559562039]</t>
         </is>
       </c>
       <c r="V2" t="n">
-        <v>9.103826137391025e-09</v>
+        <v>3.319566843629218e-13</v>
       </c>
       <c r="W2" t="n">
-        <v>9.103826137391025e-09</v>
+        <v>3.319566843629218e-13</v>
       </c>
       <c r="X2" t="n">
-        <v>18.63207207207245</v>
+        <v>17.85633633633673</v>
       </c>
       <c r="Y2" t="n">
-        <v>14.73351351351381</v>
+        <v>15.59863863863899</v>
       </c>
       <c r="Z2" t="n">
-        <v>22.53063063063109</v>
+        <v>20.11403403403447</v>
       </c>
     </row>
     <row r="3">
@@ -667,69 +667,69 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>25.29000000000051</v>
+        <v>25.63000000000057</v>
       </c>
       <c r="G3" t="n">
         <v>1</v>
       </c>
       <c r="H3" t="n">
-        <v>1.427148892352292e-05</v>
+        <v>0.0078217854411754</v>
       </c>
       <c r="I3" t="n">
-        <v>1.427148892352292e-05</v>
+        <v>0.0078217854411754</v>
       </c>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="n">
-        <v>44.35372963546269</v>
+        <v>32.42928658882848</v>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>[25.70446977711258, 63.002989493812805]</t>
+          <t>[7.478654160769182, 57.37991901688777]</t>
         </is>
       </c>
       <c r="N3" t="n">
-        <v>1.843741072149463e-05</v>
+        <v>0.01201233096790477</v>
       </c>
       <c r="O3" t="n">
-        <v>1.843741072149463e-05</v>
+        <v>0.01201233096790477</v>
       </c>
       <c r="P3" t="n">
-        <v>1.553500271144502</v>
+        <v>1.33965812855781</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>[1.0000264903318854, 2.1069740519571187]</t>
+          <t>[0.32076321388003937, 2.35855304323558]</t>
         </is>
       </c>
       <c r="R3" t="n">
-        <v>1.018637487026908e-06</v>
+        <v>0.0111195262563677</v>
       </c>
       <c r="S3" t="n">
-        <v>1.018637487026908e-06</v>
+        <v>0.0111195262563677</v>
       </c>
       <c r="T3" t="n">
-        <v>64.05278165057021</v>
+        <v>56.48936424907076</v>
       </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>[52.008907443861204, 76.09665585727922]</t>
+          <t>[42.14969906206289, 70.82902943607863]</t>
         </is>
       </c>
       <c r="V3" t="n">
-        <v>5.773159728050814e-14</v>
+        <v>4.296523137270469e-10</v>
       </c>
       <c r="W3" t="n">
-        <v>5.773159728050814e-14</v>
+        <v>4.296523137270469e-10</v>
       </c>
       <c r="X3" t="n">
-        <v>19.0371171171175</v>
+        <v>20.16534534534579</v>
       </c>
       <c r="Y3" t="n">
-        <v>16.80936936936971</v>
+        <v>16.00912912912948</v>
       </c>
       <c r="Z3" t="n">
-        <v>21.2648648648653</v>
+        <v>24.3215615615621</v>
       </c>
     </row>
     <row r="4">
@@ -753,69 +753,69 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>25.29000000000051</v>
+        <v>25.63000000000057</v>
       </c>
       <c r="G4" t="n">
         <v>1</v>
       </c>
       <c r="H4" t="n">
-        <v>2.36847069956525e-07</v>
+        <v>4.095478231713745e-05</v>
       </c>
       <c r="I4" t="n">
-        <v>2.36847069956525e-07</v>
+        <v>4.095478231713745e-05</v>
       </c>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="n">
-        <v>47.70670235975763</v>
+        <v>49.98679813858119</v>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>[28.74903656793751, 66.66436815157775]</t>
+          <t>[22.78658439485318, 77.18701188230919]</t>
         </is>
       </c>
       <c r="N4" t="n">
-        <v>7.321402200721749e-06</v>
+        <v>0.000582530909898793</v>
       </c>
       <c r="O4" t="n">
-        <v>7.321402200721749e-06</v>
+        <v>0.000582530909898793</v>
       </c>
       <c r="P4" t="n">
-        <v>1.012605439895808</v>
+        <v>0.9371317425122703</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>[0.6100790538502698, 1.415131825941347]</t>
+          <t>[0.3962369112635775, 1.478026573760963]</t>
         </is>
       </c>
       <c r="R4" t="n">
-        <v>7.363928103742978e-06</v>
+        <v>0.00109459314563054</v>
       </c>
       <c r="S4" t="n">
-        <v>7.363928103742978e-06</v>
+        <v>0.00109459314563054</v>
       </c>
       <c r="T4" t="n">
-        <v>47.85998696996708</v>
+        <v>63.43523018156016</v>
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>[37.571737881206154, 58.14823605872801]</t>
+          <t>[49.42491651201276, 77.44554385110756]</t>
         </is>
       </c>
       <c r="V4" t="n">
-        <v>3.841593709807967e-12</v>
+        <v>8.602230039400638e-12</v>
       </c>
       <c r="W4" t="n">
-        <v>3.841593709807967e-12</v>
+        <v>8.602230039400638e-12</v>
       </c>
       <c r="X4" t="n">
-        <v>21.21423423423467</v>
+        <v>21.80730730730779</v>
       </c>
       <c r="Y4" t="n">
-        <v>19.59405405405446</v>
+        <v>19.60092092092136</v>
       </c>
       <c r="Z4" t="n">
-        <v>22.83441441441488</v>
+        <v>24.01369369369423</v>
       </c>
     </row>
     <row r="5">
@@ -823,7 +823,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -839,69 +839,69 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>25.29000000000051</v>
+        <v>25.63000000000057</v>
       </c>
       <c r="G5" t="n">
         <v>1</v>
       </c>
       <c r="H5" t="n">
-        <v>0.0213296481879145</v>
+        <v>0.005182374329031791</v>
       </c>
       <c r="I5" t="n">
-        <v>0.0213296481879145</v>
+        <v>0.005182374329031791</v>
       </c>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="n">
-        <v>25.01437118293366</v>
+        <v>29.83292929366689</v>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>[2.0364313855386484, 47.992310980328675]</t>
+          <t>[6.669967382484501, 52.99589120484927]</t>
         </is>
       </c>
       <c r="N5" t="n">
-        <v>0.03354759331802848</v>
+        <v>0.01275508150479343</v>
       </c>
       <c r="O5" t="n">
-        <v>0.03354759331802848</v>
+        <v>0.01275508150479343</v>
       </c>
       <c r="P5" t="n">
-        <v>0.9622896416401163</v>
+        <v>0.8239211964369622</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>[-0.144657919985117, 2.0692372032653497]</t>
+          <t>[0.14465791998511435, 1.50318447288881]</t>
         </is>
       </c>
       <c r="R5" t="n">
-        <v>0.08677847389599047</v>
+        <v>0.01855281250539043</v>
       </c>
       <c r="S5" t="n">
-        <v>0.08677847389599047</v>
+        <v>0.01855281250539043</v>
       </c>
       <c r="T5" t="n">
-        <v>40.88062372275778</v>
+        <v>54.3233483613021</v>
       </c>
       <c r="U5" t="inlineStr">
         <is>
-          <t>[28.600175686037353, 53.1610717594782]</t>
+          <t>[42.14553037890926, 66.50116634369493]</t>
         </is>
       </c>
       <c r="V5" t="n">
-        <v>2.795931397514551e-08</v>
+        <v>1.332178811708218e-11</v>
       </c>
       <c r="W5" t="n">
-        <v>2.795931397514551e-08</v>
+        <v>1.332178811708218e-11</v>
       </c>
       <c r="X5" t="n">
-        <v>21.4167567567572</v>
+        <v>22.2691091091096</v>
       </c>
       <c r="Y5" t="n">
-        <v>16.9612612612616</v>
+        <v>19.49829829829873</v>
       </c>
       <c r="Z5" t="n">
-        <v>25.87225225225279</v>
+        <v>25.03991991992048</v>
       </c>
     </row>
     <row r="6">
@@ -909,7 +909,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -925,69 +925,69 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>24.30000000000036</v>
+        <v>24.87000000000045</v>
       </c>
       <c r="G6" t="n">
         <v>1</v>
       </c>
       <c r="H6" t="n">
-        <v>0.0003689946044365122</v>
+        <v>0.05240686171093645</v>
       </c>
       <c r="I6" t="n">
-        <v>0.0003689946044365122</v>
+        <v>0.05240686171093645</v>
       </c>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="n">
-        <v>42.64386353263477</v>
+        <v>25.19913931821711</v>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>[15.7464558820345, 69.54127118323504]</t>
+          <t>[-1.368350920264838, 51.766629556699066]</t>
         </is>
       </c>
       <c r="N6" t="n">
-        <v>0.002568778474161038</v>
+        <v>0.06247078234909353</v>
       </c>
       <c r="O6" t="n">
-        <v>0.002568778474161038</v>
+        <v>0.06247078234909353</v>
       </c>
       <c r="P6" t="n">
-        <v>0.6478159025420398</v>
+        <v>0.9119738433844251</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>[0.04402632347373192, 1.2516054816103477]</t>
+          <t>[-1.1383949355350396, 2.96234262230389]</t>
         </is>
       </c>
       <c r="R6" t="n">
-        <v>0.03605827057547684</v>
+        <v>0.3751036337645686</v>
       </c>
       <c r="S6" t="n">
-        <v>0.03605827057547684</v>
+        <v>0.3751036337645686</v>
       </c>
       <c r="T6" t="n">
-        <v>60.33009227053648</v>
+        <v>50.94846952488105</v>
       </c>
       <c r="U6" t="inlineStr">
         <is>
-          <t>[46.416936081348204, 74.24324845972475]</t>
+          <t>[36.68657537680822, 65.21036367295387]</t>
         </is>
       </c>
       <c r="V6" t="n">
-        <v>3.025335537643059e-11</v>
+        <v>5.23896237503152e-09</v>
       </c>
       <c r="W6" t="n">
-        <v>3.025335537643059e-11</v>
+        <v>5.23896237503152e-09</v>
       </c>
       <c r="X6" t="n">
-        <v>21.79459459459492</v>
+        <v>21.26024024024062</v>
       </c>
       <c r="Y6" t="n">
-        <v>19.45945945945975</v>
+        <v>13.14450450450474</v>
       </c>
       <c r="Z6" t="n">
-        <v>24.12972972973008</v>
+        <v>29.3759759759765</v>
       </c>
     </row>
     <row r="7">
@@ -1011,69 +1011,69 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>24.30000000000036</v>
+        <v>24.87000000000045</v>
       </c>
       <c r="G7" t="n">
         <v>1</v>
       </c>
       <c r="H7" t="n">
-        <v>0.001123890855752041</v>
+        <v>0.001890896205892889</v>
       </c>
       <c r="I7" t="n">
-        <v>0.001123890855752041</v>
+        <v>0.001890896205892889</v>
       </c>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="n">
-        <v>37.61597853731101</v>
+        <v>36.49699498692633</v>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>[13.725289969138537, 61.50666710548348]</t>
+          <t>[11.529586113434583, 61.46440386041808]</t>
         </is>
       </c>
       <c r="N7" t="n">
-        <v>0.002732686956781194</v>
+        <v>0.005107842410848606</v>
       </c>
       <c r="O7" t="n">
-        <v>0.002732686956781194</v>
+        <v>0.005107842410848606</v>
       </c>
       <c r="P7" t="n">
-        <v>-0.2515789912784623</v>
+        <v>0.3836579616996545</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>[-0.9811580659860013, 0.47800008342907674]</t>
+          <t>[-0.37107901213573147, 1.1383949355350405]</t>
         </is>
       </c>
       <c r="R7" t="n">
-        <v>0.4909275704047049</v>
+        <v>0.3113853704198866</v>
       </c>
       <c r="S7" t="n">
-        <v>0.4909275704047049</v>
+        <v>0.3113853704198866</v>
       </c>
       <c r="T7" t="n">
-        <v>62.7747274564901</v>
+        <v>63.27134745931208</v>
       </c>
       <c r="U7" t="inlineStr">
         <is>
-          <t>[49.39587534208192, 76.15357957089829]</t>
+          <t>[49.83165325823341, 76.71104166039075]</t>
         </is>
       </c>
       <c r="V7" t="n">
-        <v>2.964073431144243e-12</v>
+        <v>2.678746113815578e-12</v>
       </c>
       <c r="W7" t="n">
-        <v>2.964073431144243e-12</v>
+        <v>2.678746113815578e-12</v>
       </c>
       <c r="X7" t="n">
-        <v>0.9729729729729897</v>
+        <v>23.35141141141183</v>
       </c>
       <c r="Y7" t="n">
-        <v>-1.848648648648672</v>
+        <v>20.36402402402439</v>
       </c>
       <c r="Z7" t="n">
-        <v>3.794594594594651</v>
+        <v>26.33879879879927</v>
       </c>
     </row>
     <row r="8">
@@ -1097,69 +1097,69 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>24.30000000000036</v>
+        <v>24.87000000000045</v>
       </c>
       <c r="G8" t="n">
         <v>1</v>
       </c>
       <c r="H8" t="n">
-        <v>5.694513109388843e-06</v>
+        <v>2.240865606628617e-06</v>
       </c>
       <c r="I8" t="n">
-        <v>5.694513109388843e-06</v>
+        <v>2.240865606628617e-06</v>
       </c>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="n">
-        <v>52.6514386069206</v>
+        <v>47.49481261621324</v>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>[32.23106326871955, 73.07181394512165]</t>
+          <t>[27.715948347390906, 67.27367688503557]</t>
         </is>
       </c>
       <c r="N8" t="n">
-        <v>4.823407348863995e-06</v>
+        <v>1.582572093572487e-05</v>
       </c>
       <c r="O8" t="n">
-        <v>4.823407348863995e-06</v>
+        <v>1.582572093572487e-05</v>
       </c>
       <c r="P8" t="n">
-        <v>0.03144737390980801</v>
+        <v>0.3710790121357315</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>[-0.4465527095192696, 0.5094474573388856]</t>
+          <t>[-0.08176317216550011, 0.823921196436963]</t>
         </is>
       </c>
       <c r="R8" t="n">
-        <v>0.895174183705516</v>
+        <v>0.105815293138003</v>
       </c>
       <c r="S8" t="n">
-        <v>0.895174183705516</v>
+        <v>0.105815293138003</v>
       </c>
       <c r="T8" t="n">
-        <v>60.80230129527183</v>
+        <v>60.83380014616964</v>
       </c>
       <c r="U8" t="inlineStr">
         <is>
-          <t>[47.63679533379985, 73.96780725674381]</t>
+          <t>[49.62905658646774, 72.03854370587155]</t>
         </is>
       </c>
       <c r="V8" t="n">
-        <v>4.774847184307873e-12</v>
+        <v>2.930988785010413e-14</v>
       </c>
       <c r="W8" t="n">
-        <v>4.774847184307873e-12</v>
+        <v>2.930988785010413e-14</v>
       </c>
       <c r="X8" t="n">
-        <v>24.17837837837873</v>
+        <v>23.40120120120162</v>
       </c>
       <c r="Y8" t="n">
-        <v>22.32972972973006</v>
+        <v>21.60876876876916</v>
       </c>
       <c r="Z8" t="n">
-        <v>26.02702702702741</v>
+        <v>25.19363363363409</v>
       </c>
     </row>
     <row r="9">
@@ -1183,69 +1183,69 @@
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>24.30000000000036</v>
+        <v>24.87000000000045</v>
       </c>
       <c r="G9" t="n">
         <v>1</v>
       </c>
       <c r="H9" t="n">
-        <v>1.463125433365242e-06</v>
+        <v>0.000293717665778126</v>
       </c>
       <c r="I9" t="n">
-        <v>1.463125433365242e-06</v>
+        <v>0.000293717665778126</v>
       </c>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="n">
-        <v>45.9239234432726</v>
+        <v>42.43186396442996</v>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>[26.04182590822191, 65.80602097832329]</t>
+          <t>[19.967685883967405, 64.89604204489251]</t>
         </is>
       </c>
       <c r="N9" t="n">
-        <v>2.900259151172868e-05</v>
+        <v>0.0004262437963751253</v>
       </c>
       <c r="O9" t="n">
-        <v>2.900259151172868e-05</v>
+        <v>0.0004262437963751253</v>
       </c>
       <c r="P9" t="n">
-        <v>0.3333421634439624</v>
+        <v>0.106921071293347</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>[-0.11950002085726918, 0.786184347745194]</t>
+          <t>[-0.5597632555945768, 0.7736053981812709]</t>
         </is>
       </c>
       <c r="R9" t="n">
-        <v>0.1451496156905572</v>
+        <v>0.7481789085074544</v>
       </c>
       <c r="S9" t="n">
-        <v>0.1451496156905572</v>
+        <v>0.7481789085074544</v>
       </c>
       <c r="T9" t="n">
-        <v>60.47574658445337</v>
+        <v>53.86632548145424</v>
       </c>
       <c r="U9" t="inlineStr">
         <is>
-          <t>[49.74879671331165, 71.20269645559509]</t>
+          <t>[40.47882699428543, 67.25382396862305]</t>
         </is>
       </c>
       <c r="V9" t="n">
-        <v>8.43769498715119e-15</v>
+        <v>2.433873103058204e-10</v>
       </c>
       <c r="W9" t="n">
-        <v>8.43769498715119e-15</v>
+        <v>2.433873103058204e-10</v>
       </c>
       <c r="X9" t="n">
-        <v>23.01081081081115</v>
+        <v>24.44678678678723</v>
       </c>
       <c r="Y9" t="n">
-        <v>21.25945945945977</v>
+        <v>21.80792792792832</v>
       </c>
       <c r="Z9" t="n">
-        <v>24.76216216216253</v>
+        <v>27.08564564564613</v>
       </c>
     </row>
   </sheetData>

--- a/src/analysis_examples/circadipy/results_circadipy/sine_01/cosinor_per_day_fixed_period_2_sine_01_.xlsx
+++ b/src/analysis_examples/circadipy/results_circadipy/sine_01/cosinor_per_day_fixed_period_2_sine_01_.xlsx
@@ -581,69 +581,69 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>25.63000000000057</v>
+        <v>24.82000000000044</v>
       </c>
       <c r="G2" t="n">
         <v>1</v>
       </c>
       <c r="H2" t="n">
-        <v>1.033913669856723e-05</v>
+        <v>2.343890157829875e-05</v>
       </c>
       <c r="I2" t="n">
-        <v>1.033913669856723e-05</v>
+        <v>2.343890157829875e-05</v>
       </c>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="n">
-        <v>47.44987279384012</v>
+        <v>46.50539194273988</v>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>[26.018595720753268, 68.88114986692698]</t>
+          <t>[26.67991130671959, 66.33087257876016]</t>
         </is>
       </c>
       <c r="N2" t="n">
-        <v>5.429484279217967e-05</v>
+        <v>2.28792813916634e-05</v>
       </c>
       <c r="O2" t="n">
-        <v>5.429484279217967e-05</v>
+        <v>2.28792813916634e-05</v>
       </c>
       <c r="P2" t="n">
-        <v>1.905710858934349</v>
+        <v>1.566079220708426</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>[1.3522370781217345, 2.4591846397469643]</t>
+          <t>[1.0126054398958093, 2.1195530015210426]</t>
         </is>
       </c>
       <c r="R2" t="n">
-        <v>1.272621563686016e-08</v>
+        <v>8.717722252971072e-07</v>
       </c>
       <c r="S2" t="n">
-        <v>1.272621563686016e-08</v>
+        <v>8.717722252971072e-07</v>
       </c>
       <c r="T2" t="n">
-        <v>64.4500992842018</v>
+        <v>69.4195331357402</v>
       </c>
       <c r="U2" t="inlineStr">
         <is>
-          <t>[51.65299297278321, 77.24720559562039]</t>
+          <t>[56.53221358455849, 82.3068526869219]</t>
         </is>
       </c>
       <c r="V2" t="n">
-        <v>3.319566843629218e-13</v>
+        <v>3.819167204710538e-14</v>
       </c>
       <c r="W2" t="n">
-        <v>3.319566843629218e-13</v>
+        <v>3.819167204710538e-14</v>
       </c>
       <c r="X2" t="n">
-        <v>17.85633633633673</v>
+        <v>18.63363363363396</v>
       </c>
       <c r="Y2" t="n">
-        <v>15.59863863863899</v>
+        <v>16.44728728728758</v>
       </c>
       <c r="Z2" t="n">
-        <v>20.11403403403447</v>
+        <v>20.81997997998035</v>
       </c>
     </row>
     <row r="3">
@@ -667,69 +667,69 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>25.63000000000057</v>
+        <v>24.82000000000044</v>
       </c>
       <c r="G3" t="n">
         <v>1</v>
       </c>
       <c r="H3" t="n">
-        <v>0.0078217854411754</v>
+        <v>1.55166868320844e-06</v>
       </c>
       <c r="I3" t="n">
-        <v>0.0078217854411754</v>
+        <v>1.55166868320844e-06</v>
       </c>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="n">
-        <v>32.42928658882848</v>
+        <v>55.92702287889723</v>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>[7.478654160769182, 57.37991901688777]</t>
+          <t>[30.26950127773135, 81.58454448006312]</t>
         </is>
       </c>
       <c r="N3" t="n">
-        <v>0.01201233096790477</v>
+        <v>6.783184396175201e-05</v>
       </c>
       <c r="O3" t="n">
-        <v>0.01201233096790477</v>
+        <v>6.783184396175201e-05</v>
       </c>
       <c r="P3" t="n">
-        <v>1.33965812855781</v>
+        <v>0.9119738433844251</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>[0.32076321388003937, 2.35855304323558]</t>
+          <t>[0.47171060864711656, 1.3522370781217337]</t>
         </is>
       </c>
       <c r="R3" t="n">
-        <v>0.0111195262563677</v>
+        <v>0.0001359863332710542</v>
       </c>
       <c r="S3" t="n">
-        <v>0.0111195262563677</v>
+        <v>0.0001359863332710542</v>
       </c>
       <c r="T3" t="n">
-        <v>56.48936424907076</v>
+        <v>68.79281322515766</v>
       </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>[42.14969906206289, 70.82902943607863]</t>
+          <t>[55.63575840835685, 81.94986804195847]</t>
         </is>
       </c>
       <c r="V3" t="n">
-        <v>4.296523137270469e-10</v>
+        <v>1.003641614261142e-13</v>
       </c>
       <c r="W3" t="n">
-        <v>4.296523137270469e-10</v>
+        <v>1.003641614261142e-13</v>
       </c>
       <c r="X3" t="n">
-        <v>20.16534534534579</v>
+        <v>21.21749749749787</v>
       </c>
       <c r="Y3" t="n">
-        <v>16.00912912912948</v>
+        <v>19.4783583583587</v>
       </c>
       <c r="Z3" t="n">
-        <v>24.3215615615621</v>
+        <v>22.95663663663704</v>
       </c>
     </row>
     <row r="4">
@@ -753,69 +753,69 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>25.63000000000057</v>
+        <v>24.82000000000044</v>
       </c>
       <c r="G4" t="n">
         <v>1</v>
       </c>
       <c r="H4" t="n">
-        <v>4.095478231713745e-05</v>
+        <v>0.0001821043627763252</v>
       </c>
       <c r="I4" t="n">
-        <v>4.095478231713745e-05</v>
+        <v>0.0001821043627763252</v>
       </c>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="n">
-        <v>49.98679813858119</v>
+        <v>41.81578948862263</v>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>[22.78658439485318, 77.18701188230919]</t>
+          <t>[17.20519316017719, 66.42638581706807]</t>
         </is>
       </c>
       <c r="N4" t="n">
-        <v>0.000582530909898793</v>
+        <v>0.001333113197090841</v>
       </c>
       <c r="O4" t="n">
-        <v>0.000582530909898793</v>
+        <v>0.001333113197090841</v>
       </c>
       <c r="P4" t="n">
-        <v>0.9371317425122703</v>
+        <v>0.9874475407679633</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>[0.3962369112635775, 1.478026573760963]</t>
+          <t>[0.3962369112635784, 1.5786581702723481]</t>
         </is>
       </c>
       <c r="R4" t="n">
-        <v>0.00109459314563054</v>
+        <v>0.00157813069075563</v>
       </c>
       <c r="S4" t="n">
-        <v>0.00109459314563054</v>
+        <v>0.00157813069075563</v>
       </c>
       <c r="T4" t="n">
-        <v>63.43523018156016</v>
+        <v>63.59256834816286</v>
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>[49.42491651201276, 77.44554385110756]</t>
+          <t>[50.571024910148964, 76.61411178617675]</t>
         </is>
       </c>
       <c r="V4" t="n">
-        <v>8.602230039400638e-12</v>
+        <v>8.704148513061227e-13</v>
       </c>
       <c r="W4" t="n">
-        <v>8.602230039400638e-12</v>
+        <v>8.704148513061227e-13</v>
       </c>
       <c r="X4" t="n">
-        <v>21.80730730730779</v>
+        <v>20.91935935935973</v>
       </c>
       <c r="Y4" t="n">
-        <v>19.60092092092136</v>
+        <v>18.58394394394428</v>
       </c>
       <c r="Z4" t="n">
-        <v>24.01369369369423</v>
+        <v>23.25477477477519</v>
       </c>
     </row>
     <row r="5">
@@ -839,69 +839,69 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>25.63000000000057</v>
+        <v>24.82000000000044</v>
       </c>
       <c r="G5" t="n">
         <v>1</v>
       </c>
       <c r="H5" t="n">
-        <v>0.005182374329031791</v>
+        <v>8.726909533762761e-05</v>
       </c>
       <c r="I5" t="n">
-        <v>0.005182374329031791</v>
+        <v>8.726909533762761e-05</v>
       </c>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="n">
-        <v>29.83292929366689</v>
+        <v>47.41593871909169</v>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>[6.669967382484501, 52.99589120484927]</t>
+          <t>[20.794464881264844, 74.03741255691854]</t>
         </is>
       </c>
       <c r="N5" t="n">
-        <v>0.01275508150479343</v>
+        <v>0.0008197278945718534</v>
       </c>
       <c r="O5" t="n">
-        <v>0.01275508150479343</v>
+        <v>0.0008197278945718534</v>
       </c>
       <c r="P5" t="n">
-        <v>0.8239211964369622</v>
+        <v>0.8993948938205021</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>[0.14465791998511435, 1.50318447288881]</t>
+          <t>[0.35850006257180755, 1.4402897250691966]</t>
         </is>
       </c>
       <c r="R5" t="n">
-        <v>0.01855281250539043</v>
+        <v>0.001647691893571723</v>
       </c>
       <c r="S5" t="n">
-        <v>0.01855281250539043</v>
+        <v>0.001647691893571723</v>
       </c>
       <c r="T5" t="n">
-        <v>54.3233483613021</v>
+        <v>55.87087462843242</v>
       </c>
       <c r="U5" t="inlineStr">
         <is>
-          <t>[42.14553037890926, 66.50116634369493]</t>
+          <t>[41.88473665899408, 69.85701259787075]</t>
         </is>
       </c>
       <c r="V5" t="n">
-        <v>1.332178811708218e-11</v>
+        <v>2.956870304160475e-10</v>
       </c>
       <c r="W5" t="n">
-        <v>1.332178811708218e-11</v>
+        <v>2.956870304160475e-10</v>
       </c>
       <c r="X5" t="n">
-        <v>22.2691091091096</v>
+        <v>21.26718718718756</v>
       </c>
       <c r="Y5" t="n">
-        <v>19.49829829829873</v>
+        <v>19.13053053053086</v>
       </c>
       <c r="Z5" t="n">
-        <v>25.03991991992048</v>
+        <v>23.40384384384426</v>
       </c>
     </row>
     <row r="6">
@@ -925,69 +925,69 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>24.87000000000045</v>
+        <v>23.82000000000028</v>
       </c>
       <c r="G6" t="n">
         <v>1</v>
       </c>
       <c r="H6" t="n">
-        <v>0.05240686171093645</v>
+        <v>0.001887006636508759</v>
       </c>
       <c r="I6" t="n">
-        <v>0.05240686171093645</v>
+        <v>0.001887006636508759</v>
       </c>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="n">
-        <v>25.19913931821711</v>
+        <v>36.83759614856285</v>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>[-1.368350920264838, 51.766629556699066]</t>
+          <t>[12.417790161146733, 61.25740213597896]</t>
         </is>
       </c>
       <c r="N6" t="n">
-        <v>0.06247078234909353</v>
+        <v>0.003952599901522413</v>
       </c>
       <c r="O6" t="n">
-        <v>0.06247078234909353</v>
+        <v>0.003952599901522413</v>
       </c>
       <c r="P6" t="n">
-        <v>0.9119738433844251</v>
+        <v>0.2327105669325773</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>[-1.1383949355350396, 2.96234262230389]</t>
+          <t>[-0.5597632555945768, 1.0251843894597314]</t>
         </is>
       </c>
       <c r="R6" t="n">
-        <v>0.3751036337645686</v>
+        <v>0.5571831977721402</v>
       </c>
       <c r="S6" t="n">
-        <v>0.3751036337645686</v>
+        <v>0.5571831977721402</v>
       </c>
       <c r="T6" t="n">
-        <v>50.94846952488105</v>
+        <v>52.64559322858355</v>
       </c>
       <c r="U6" t="inlineStr">
         <is>
-          <t>[36.68657537680822, 65.21036367295387]</t>
+          <t>[38.80600848129568, 66.48517797587142]</t>
         </is>
       </c>
       <c r="V6" t="n">
-        <v>5.23896237503152e-09</v>
+        <v>1.076168931746224e-09</v>
       </c>
       <c r="W6" t="n">
-        <v>5.23896237503152e-09</v>
+        <v>1.076168931746224e-09</v>
       </c>
       <c r="X6" t="n">
-        <v>21.26024024024062</v>
+        <v>22.93777777777805</v>
       </c>
       <c r="Y6" t="n">
-        <v>13.14450450450474</v>
+        <v>19.93345345345369</v>
       </c>
       <c r="Z6" t="n">
-        <v>29.3759759759765</v>
+        <v>25.94210210210241</v>
       </c>
     </row>
     <row r="7">
@@ -1011,69 +1011,69 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>24.87000000000045</v>
+        <v>23.82000000000028</v>
       </c>
       <c r="G7" t="n">
         <v>1</v>
       </c>
       <c r="H7" t="n">
-        <v>0.001890896205892889</v>
+        <v>0.0009875261257139556</v>
       </c>
       <c r="I7" t="n">
-        <v>0.001890896205892889</v>
+        <v>0.0009875261257139556</v>
       </c>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="n">
-        <v>36.49699498692633</v>
+        <v>43.79792844612064</v>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>[11.529586113434583, 61.46440386041808]</t>
+          <t>[17.263415314654893, 70.3324415775864]</t>
         </is>
       </c>
       <c r="N7" t="n">
-        <v>0.005107842410848606</v>
+        <v>0.001768287135281321</v>
       </c>
       <c r="O7" t="n">
-        <v>0.005107842410848606</v>
+        <v>0.001768287135281321</v>
       </c>
       <c r="P7" t="n">
-        <v>0.3836579616996545</v>
+        <v>0.2830263651882685</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>[-0.37107901213573147, 1.1383949355350405]</t>
+          <t>[-0.4465527095192714, 1.0126054398958084]</t>
         </is>
       </c>
       <c r="R7" t="n">
-        <v>0.3113853704198866</v>
+        <v>0.4386980248484091</v>
       </c>
       <c r="S7" t="n">
-        <v>0.3113853704198866</v>
+        <v>0.4386980248484091</v>
       </c>
       <c r="T7" t="n">
-        <v>63.27134745931208</v>
+        <v>61.15961662514707</v>
       </c>
       <c r="U7" t="inlineStr">
         <is>
-          <t>[49.83165325823341, 76.71104166039075]</t>
+          <t>[45.61294735771051, 76.70628589258362]</t>
         </is>
       </c>
       <c r="V7" t="n">
-        <v>2.678746113815578e-12</v>
+        <v>4.45752545985556e-10</v>
       </c>
       <c r="W7" t="n">
-        <v>2.678746113815578e-12</v>
+        <v>4.45752545985556e-10</v>
       </c>
       <c r="X7" t="n">
-        <v>23.35141141141183</v>
+        <v>22.7470270270273</v>
       </c>
       <c r="Y7" t="n">
-        <v>20.36402402402439</v>
+        <v>19.98114114114138</v>
       </c>
       <c r="Z7" t="n">
-        <v>26.33879879879927</v>
+        <v>25.51291291291323</v>
       </c>
     </row>
     <row r="8">
@@ -1081,7 +1081,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1097,69 +1097,69 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>24.87000000000045</v>
+        <v>23.82000000000028</v>
       </c>
       <c r="G8" t="n">
         <v>1</v>
       </c>
       <c r="H8" t="n">
-        <v>2.240865606628617e-06</v>
+        <v>1.706164117765141e-06</v>
       </c>
       <c r="I8" t="n">
-        <v>2.240865606628617e-06</v>
+        <v>1.706164117765141e-06</v>
       </c>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="n">
-        <v>47.49481261621324</v>
+        <v>51.75262955839948</v>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>[27.715948347390906, 67.27367688503557]</t>
+          <t>[28.649921199122517, 74.85533791767644]</t>
         </is>
       </c>
       <c r="N8" t="n">
-        <v>1.582572093572487e-05</v>
+        <v>4.581222950150732e-05</v>
       </c>
       <c r="O8" t="n">
-        <v>1.582572093572487e-05</v>
+        <v>4.581222950150732e-05</v>
       </c>
       <c r="P8" t="n">
-        <v>0.3710790121357315</v>
+        <v>0.4968685077749626</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>[-0.08176317216550011, 0.823921196436963]</t>
+          <t>[0.056605273037654946, 0.9371317425122703]</t>
         </is>
       </c>
       <c r="R8" t="n">
-        <v>0.105815293138003</v>
+        <v>0.02784651399037696</v>
       </c>
       <c r="S8" t="n">
-        <v>0.105815293138003</v>
+        <v>0.02784651399037696</v>
       </c>
       <c r="T8" t="n">
-        <v>60.83380014616964</v>
+        <v>59.44197679599898</v>
       </c>
       <c r="U8" t="inlineStr">
         <is>
-          <t>[49.62905658646774, 72.03854370587155]</t>
+          <t>[47.172182066983396, 71.71177152501457]</t>
         </is>
       </c>
       <c r="V8" t="n">
-        <v>2.930988785010413e-14</v>
+        <v>1.115774139748282e-12</v>
       </c>
       <c r="W8" t="n">
-        <v>2.930988785010413e-14</v>
+        <v>1.115774139748282e-12</v>
       </c>
       <c r="X8" t="n">
-        <v>23.40120120120162</v>
+        <v>21.9363363363366</v>
       </c>
       <c r="Y8" t="n">
-        <v>21.60876876876916</v>
+        <v>20.26726726726751</v>
       </c>
       <c r="Z8" t="n">
-        <v>25.19363363363409</v>
+        <v>23.60540540540568</v>
       </c>
     </row>
     <row r="9">
@@ -1183,69 +1183,69 @@
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>24.87000000000045</v>
+        <v>23.82000000000028</v>
       </c>
       <c r="G9" t="n">
         <v>1</v>
       </c>
       <c r="H9" t="n">
-        <v>0.000293717665778126</v>
+        <v>2.191378713378711e-06</v>
       </c>
       <c r="I9" t="n">
-        <v>0.000293717665778126</v>
+        <v>2.191378713378711e-06</v>
       </c>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="n">
-        <v>42.43186396442996</v>
+        <v>47.71614368764287</v>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>[19.967685883967405, 64.89604204489251]</t>
+          <t>[26.990821353140007, 68.44146602214573]</t>
         </is>
       </c>
       <c r="N9" t="n">
-        <v>0.0004262437963751253</v>
+        <v>3.047107119424908e-05</v>
       </c>
       <c r="O9" t="n">
-        <v>0.0004262437963751253</v>
+        <v>3.047107119424908e-05</v>
       </c>
       <c r="P9" t="n">
-        <v>0.106921071293347</v>
+        <v>0.3459211130078854</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>[-0.5597632555945768, 0.7736053981812709]</t>
+          <t>[-0.15723686954903737, 0.8490790955648082]</t>
         </is>
       </c>
       <c r="R9" t="n">
-        <v>0.7481789085074544</v>
+        <v>0.172973052946068</v>
       </c>
       <c r="S9" t="n">
-        <v>0.7481789085074544</v>
+        <v>0.172973052946068</v>
       </c>
       <c r="T9" t="n">
-        <v>53.86632548145424</v>
+        <v>56.76322144762293</v>
       </c>
       <c r="U9" t="inlineStr">
         <is>
-          <t>[40.47882699428543, 67.25382396862305]</t>
+          <t>[45.302336302771714, 68.22410659247416]</t>
         </is>
       </c>
       <c r="V9" t="n">
-        <v>2.433873103058204e-10</v>
+        <v>5.617728504603292e-13</v>
       </c>
       <c r="W9" t="n">
-        <v>2.433873103058204e-10</v>
+        <v>5.617728504603292e-13</v>
       </c>
       <c r="X9" t="n">
-        <v>24.44678678678723</v>
+        <v>22.50858858858886</v>
       </c>
       <c r="Y9" t="n">
-        <v>21.80792792792832</v>
+        <v>20.60108108108133</v>
       </c>
       <c r="Z9" t="n">
-        <v>27.08564564564613</v>
+        <v>24.41609609609638</v>
       </c>
     </row>
   </sheetData>
